--- a/working_with_libraries/Pandas/accessing_data/Yao_2018.xlsx
+++ b/working_with_libraries/Pandas/accessing_data/Yao_2018.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="outside_peak" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="inside_peak" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="combined_data" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="43">
   <si>
     <t xml:space="preserve">Core,section,interval(cm)</t>
   </si>
@@ -141,6 +142,15 @@
   </si>
   <si>
     <t xml:space="preserve">1221C 11-3 70-72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in</t>
   </si>
 </sst>
 </file>
@@ -265,7 +275,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -829,11 +839,11 @@
   </sheetPr>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.43"/>
   </cols>
@@ -1010,6 +1020,844 @@
         <v>18.9913170945979</v>
       </c>
       <c r="E10" s="3" t="n">
+        <v>0.223966428594098</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F40"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B40" activeCellId="0" sqref="B40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.48"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="41.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>153.4</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>55.0011</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>17.5161515091722</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>0.208390691875708</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>153.45</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>55.0184</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>17.5753902770948</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>0.208390691875708</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>153.45</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>55.0184</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>17.6805693140186</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>0.208390691875708</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>153.5</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>55.0358</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>17.7373901730464</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>0.208390691875708</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>153.55</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>55.0531</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>17.8860915700766</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>0.208390691875708</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>153.56</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>55.0566</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>17.8292707110488</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>0.208390691875708</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>153.6</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>55.0705</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>17.7518976264152</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>0.208390691875708</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>153.65</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>55.0878</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>17.7615692619944</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>0.208390691875708</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>153.7</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>55.1052</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>17.6588081339654</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>0.208390691875708</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>153.75</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>55.1225</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>17.6007783204902</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>0.208390691875708</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>153.8</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>55.1399</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>17.7821214876002</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>0.208390691875708</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>153.85</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>55.1572</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>17.6721066328868</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>0.208390691875708</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>154.16</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <f aca="false">D15-0.138*(C15-C14)</f>
+        <v>55.21464</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>17.542252807434</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>0.207722576227726</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>154.18</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <f aca="false">D16-0.138*(C16-C15)</f>
+        <v>55.2174</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>17.7828792168222</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>0.207722576227726</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>154.22</v>
+      </c>
+      <c r="D16" s="3" t="n">
+        <f aca="false">D17-0.138*(C17-C16)</f>
+        <v>55.22292</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>17.7051009834846</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>0.207722576227726</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>154.24</v>
+      </c>
+      <c r="D17" s="3" t="n">
+        <f aca="false">D18-0.138*(C18-C17)</f>
+        <v>55.22568</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>17.5082248303488</v>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>0.207722576227726</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>154.26</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <f aca="false">D19-0.138*(C19-C18)</f>
+        <v>55.22844</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>17.59086420327</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>0.207722576227726</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>154.26</v>
+      </c>
+      <c r="D19" s="3" t="n">
+        <f aca="false">D20-0.138*(C20-C19)</f>
+        <v>55.22844</v>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>17.6807952855666</v>
+      </c>
+      <c r="F19" s="3" t="n">
+        <v>0.207722576227726</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>154.28</v>
+      </c>
+      <c r="D20" s="3" t="n">
+        <v>55.2312</v>
+      </c>
+      <c r="E20" s="3" t="n">
+        <v>17.8740255840147</v>
+      </c>
+      <c r="F20" s="3" t="n">
+        <v>0.207722576227726</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>154.3</v>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>55.234</v>
+      </c>
+      <c r="E21" s="3" t="n">
+        <v>17.6601354423363</v>
+      </c>
+      <c r="F21" s="3" t="n">
+        <v>0.207722576227726</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>154.32</v>
+      </c>
+      <c r="D22" s="3" t="n">
+        <v>55.2368</v>
+      </c>
+      <c r="E22" s="3" t="n">
+        <v>17.4985025511816</v>
+      </c>
+      <c r="F22" s="3" t="n">
+        <v>0.207722576227726</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>154.34</v>
+      </c>
+      <c r="D23" s="3" t="n">
+        <v>55.2395</v>
+      </c>
+      <c r="E23" s="3" t="n">
+        <v>17.6188157558757</v>
+      </c>
+      <c r="F23" s="3" t="n">
+        <v>0.207722576227726</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>154.36</v>
+      </c>
+      <c r="D24" s="3" t="n">
+        <v>55.2423</v>
+      </c>
+      <c r="E24" s="3" t="n">
+        <v>17.8023237751566</v>
+      </c>
+      <c r="F24" s="3" t="n">
+        <v>0.207722576227726</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>154.36</v>
+      </c>
+      <c r="D25" s="3" t="n">
+        <v>55.2423</v>
+      </c>
+      <c r="E25" s="3" t="n">
+        <v>17.6990245590051</v>
+      </c>
+      <c r="F25" s="3" t="n">
+        <v>0.207722576227726</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>154.38</v>
+      </c>
+      <c r="D26" s="3" t="n">
+        <v>55.2451</v>
+      </c>
+      <c r="E26" s="3" t="n">
+        <v>17.687823040703</v>
+      </c>
+      <c r="F26" s="3" t="n">
+        <v>0.208390691875708</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>154.38</v>
+      </c>
+      <c r="D27" s="3" t="n">
+        <v>55.2451</v>
+      </c>
+      <c r="E27" s="3" t="n">
+        <v>17.6820105704625</v>
+      </c>
+      <c r="F27" s="3" t="n">
+        <v>0.207722576227726</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>154.45</v>
+      </c>
+      <c r="D28" s="3" t="n">
+        <v>55.2547</v>
+      </c>
+      <c r="E28" s="3" t="n">
+        <v>17.5252388188914</v>
+      </c>
+      <c r="F28" s="3" t="n">
+        <v>0.207722576227726</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>154.5</v>
+      </c>
+      <c r="D29" s="3" t="n">
+        <v>55.2616</v>
+      </c>
+      <c r="E29" s="3" t="n">
+        <v>17.5580515110807</v>
+      </c>
+      <c r="F29" s="3" t="n">
+        <v>0.207722576227726</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>154.8</v>
+      </c>
+      <c r="D30" s="3" t="n">
+        <v>55.3031</v>
+      </c>
+      <c r="E30" s="3" t="n">
+        <v>17.0670764131371</v>
+      </c>
+      <c r="F30" s="3" t="n">
+        <v>0.207722576227726</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>154.8</v>
+      </c>
+      <c r="D31" s="3" t="n">
+        <v>55.3031</v>
+      </c>
+      <c r="E31" s="3" t="n">
+        <v>17.4601188045234</v>
+      </c>
+      <c r="F31" s="3" t="n">
+        <v>0.223966428594098</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>153.905</v>
+      </c>
+      <c r="D32" s="3" t="n">
+        <f aca="false">(55.1746+55.1815)/2</f>
+        <v>55.17805</v>
+      </c>
+      <c r="E32" s="3" t="n">
+        <v>17.8800467978396</v>
+      </c>
+      <c r="F32" s="3" t="n">
+        <v>0.208390691875708</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>153.95</v>
+      </c>
+      <c r="D33" s="3" t="n">
+        <f aca="false">(55.1843+55.187)/2</f>
+        <v>55.18565</v>
+      </c>
+      <c r="E33" s="3" t="n">
+        <v>17.8800467978396</v>
+      </c>
+      <c r="F33" s="3" t="n">
+        <v>0.208390691875708</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>153.96</v>
+      </c>
+      <c r="D34" s="3" t="n">
+        <v>55.187</v>
+      </c>
+      <c r="E34" s="3" t="n">
+        <v>18.2451510409544</v>
+      </c>
+      <c r="F34" s="3" t="n">
+        <v>0.208390691875708</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>153.99</v>
+      </c>
+      <c r="D35" s="3" t="n">
+        <f aca="false">(55.1898+55.1926)/2</f>
+        <v>55.1912</v>
+      </c>
+      <c r="E35" s="3" t="n">
+        <v>17.8957632056558</v>
+      </c>
+      <c r="F35" s="3" t="n">
+        <v>0.208390691875708</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="D36" s="3" t="n">
+        <v>55.1926</v>
+      </c>
+      <c r="E36" s="3" t="n">
+        <v>18.3092256266666</v>
+      </c>
+      <c r="F36" s="3" t="n">
+        <v>0.208390691875708</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>154.03</v>
+      </c>
+      <c r="D37" s="3" t="n">
+        <f aca="false">D38-0.138*(C38-C37)</f>
+        <v>55.19674</v>
+      </c>
+      <c r="E37" s="3" t="n">
+        <v>17.9469426777687</v>
+      </c>
+      <c r="F37" s="3" t="n">
+        <v>0.207722576227726</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>154.07</v>
+      </c>
+      <c r="D38" s="3" t="n">
+        <f aca="false">D39-0.138*(C39-C38)</f>
+        <v>55.20226</v>
+      </c>
+      <c r="E38" s="3" t="n">
+        <v>18.1936455116364</v>
+      </c>
+      <c r="F38" s="3" t="n">
+        <v>0.207722576227726</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>154.1</v>
+      </c>
+      <c r="D39" s="3" t="n">
+        <v>55.2064</v>
+      </c>
+      <c r="E39" s="3" t="n">
+        <v>18.908867032577</v>
+      </c>
+      <c r="F39" s="3" t="n">
+        <v>0.208390691875708</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>154.1</v>
+      </c>
+      <c r="D40" s="3" t="n">
+        <v>55.2064</v>
+      </c>
+      <c r="E40" s="3" t="n">
+        <v>18.9913170945979</v>
+      </c>
+      <c r="F40" s="3" t="n">
         <v>0.223966428594098</v>
       </c>
     </row>
